--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/77.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/angle/60/2_fold/77.xlsx
@@ -479,13 +479,13 @@
         <v>-4.907487902926887</v>
       </c>
       <c r="E2" t="n">
-        <v>-10.12528860866467</v>
+        <v>-11.15721082634668</v>
       </c>
       <c r="F2" t="n">
-        <v>-2.557426966336179</v>
+        <v>-1.037109483446423</v>
       </c>
       <c r="G2" t="n">
-        <v>-6.711719396438594</v>
+        <v>-8.18030919080069</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-4.392275809922024</v>
       </c>
       <c r="E3" t="n">
-        <v>-10.6907058914903</v>
+        <v>-11.74034199491716</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.671028878093836</v>
+        <v>-1.085433173235234</v>
       </c>
       <c r="G3" t="n">
-        <v>-6.629394996169821</v>
+        <v>-8.085769671980586</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-3.7809709278336</v>
       </c>
       <c r="E4" t="n">
-        <v>-10.95197588699978</v>
+        <v>-12.12532115997811</v>
       </c>
       <c r="F4" t="n">
-        <v>-2.598117843568263</v>
+        <v>-1.008673001674194</v>
       </c>
       <c r="G4" t="n">
-        <v>-6.249993152119441</v>
+        <v>-7.570509001341615</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-3.175643118173895</v>
       </c>
       <c r="E5" t="n">
-        <v>-11.48660007354167</v>
+        <v>-12.69481014898752</v>
       </c>
       <c r="F5" t="n">
-        <v>-2.679617428758008</v>
+        <v>-1.03724040647484</v>
       </c>
       <c r="G5" t="n">
-        <v>-5.945950603226036</v>
+        <v>-7.268194636423319</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-2.58845906304182</v>
       </c>
       <c r="E6" t="n">
-        <v>-11.94854888700913</v>
+        <v>-13.13137298724487</v>
       </c>
       <c r="F6" t="n">
-        <v>-2.837091647338289</v>
+        <v>-1.234187918122925</v>
       </c>
       <c r="G6" t="n">
-        <v>-5.61375960322292</v>
+        <v>-6.844514624162222</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-2.055213403955132</v>
       </c>
       <c r="E7" t="n">
-        <v>-12.50769495677357</v>
+        <v>-13.79460286460103</v>
       </c>
       <c r="F7" t="n">
-        <v>-2.703995296649302</v>
+        <v>-1.062246704902537</v>
       </c>
       <c r="G7" t="n">
-        <v>-5.252215660248655</v>
+        <v>-6.382500349180551</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-1.5794893318443</v>
       </c>
       <c r="E8" t="n">
-        <v>-13.16406446744066</v>
+        <v>-14.51503301307269</v>
       </c>
       <c r="F8" t="n">
-        <v>-2.745812111925775</v>
+        <v>-1.184476444232891</v>
       </c>
       <c r="G8" t="n">
-        <v>-5.031741280393988</v>
+        <v>-6.100858730449339</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-1.165479640760783</v>
       </c>
       <c r="E9" t="n">
-        <v>-13.63560993889111</v>
+        <v>-15.11348217596799</v>
       </c>
       <c r="F9" t="n">
-        <v>-2.79507844751919</v>
+        <v>-1.129567326114692</v>
       </c>
       <c r="G9" t="n">
-        <v>-4.817970159594285</v>
+        <v>-5.754122181989066</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.8031859730515817</v>
       </c>
       <c r="E10" t="n">
-        <v>-14.30415529120101</v>
+        <v>-15.80770153415051</v>
       </c>
       <c r="F10" t="n">
-        <v>-2.718671768134877</v>
+        <v>-1.098630214499693</v>
       </c>
       <c r="G10" t="n">
-        <v>-4.784388402805257</v>
+        <v>-5.648925528655797</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.4838784111641874</v>
       </c>
       <c r="E11" t="n">
-        <v>-14.7854414359657</v>
+        <v>-16.32785872605229</v>
       </c>
       <c r="F11" t="n">
-        <v>-2.772428763603004</v>
+        <v>-1.139268722520411</v>
       </c>
       <c r="G11" t="n">
-        <v>-4.730055346012095</v>
+        <v>-5.421355120660914</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>-0.2084920061942077</v>
       </c>
       <c r="E12" t="n">
-        <v>-15.34979824226114</v>
+        <v>-16.91020435645227</v>
       </c>
       <c r="F12" t="n">
-        <v>-2.778778530481242</v>
+        <v>-1.117954453494081</v>
       </c>
       <c r="G12" t="n">
-        <v>-4.480830269116997</v>
+        <v>-5.139425471267185</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.01601432378040811</v>
       </c>
       <c r="E13" t="n">
-        <v>-15.57793161927822</v>
+        <v>-17.30247593419606</v>
       </c>
       <c r="F13" t="n">
-        <v>-2.809794195913291</v>
+        <v>-1.104338458538686</v>
       </c>
       <c r="G13" t="n">
-        <v>-3.983977376273493</v>
+        <v>-4.615969019049293</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1712589207964602</v>
       </c>
       <c r="E14" t="n">
-        <v>-16.2406639891264</v>
+        <v>-18.09724417820305</v>
       </c>
       <c r="F14" t="n">
-        <v>-2.591885907415602</v>
+        <v>-0.9080848389412122</v>
       </c>
       <c r="G14" t="n">
-        <v>-3.561776794233511</v>
+        <v>-4.135272027912479</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.245690384659504</v>
       </c>
       <c r="E15" t="n">
-        <v>-16.91788953822036</v>
+        <v>-18.79803587241211</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.510687445191217</v>
+        <v>-0.7744647961385559</v>
       </c>
       <c r="G15" t="n">
-        <v>-3.501146339773477</v>
+        <v>-4.041884631742447</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.2375862101500851</v>
       </c>
       <c r="E16" t="n">
-        <v>-17.66976739811784</v>
+        <v>-19.62217015169309</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.339361570204389</v>
+        <v>-0.5852155585614056</v>
       </c>
       <c r="G16" t="n">
-        <v>-3.232950516060719</v>
+        <v>-3.713176184295231</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.1612704511983546</v>
       </c>
       <c r="E17" t="n">
-        <v>-18.23725326479246</v>
+        <v>-20.38643333007885</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.181272013390547</v>
+        <v>-0.3442779093651208</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.923055707797063</v>
+        <v>-3.459120047651536</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.04592105772805934</v>
       </c>
       <c r="E18" t="n">
-        <v>-18.70404623031136</v>
+        <v>-21.00080273322968</v>
       </c>
       <c r="F18" t="n">
-        <v>-2.235866916240545</v>
+        <v>-0.3880978469763779</v>
       </c>
       <c r="G18" t="n">
-        <v>-2.815135855472715</v>
+        <v>-3.295872123518054</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>-0.07533154614942261</v>
       </c>
       <c r="E19" t="n">
-        <v>-19.19420895640275</v>
+        <v>-21.52950919888711</v>
       </c>
       <c r="F19" t="n">
-        <v>-2.000192372786634</v>
+        <v>-0.08258896016470012</v>
       </c>
       <c r="G19" t="n">
-        <v>-2.457218480385607</v>
+        <v>-2.893964610882747</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>-0.1695392579673834</v>
       </c>
       <c r="E20" t="n">
-        <v>-19.5509480242341</v>
+        <v>-21.97671607935479</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.732507148884703</v>
+        <v>0.1876623550942094</v>
       </c>
       <c r="G20" t="n">
-        <v>-2.041812803520481</v>
+        <v>-2.458422972247046</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>-0.2146641673696698</v>
       </c>
       <c r="E21" t="n">
-        <v>-20.16161230568073</v>
+        <v>-22.60637729222476</v>
       </c>
       <c r="F21" t="n">
-        <v>-1.495588836660828</v>
+        <v>0.3689776571492737</v>
       </c>
       <c r="G21" t="n">
-        <v>-1.976089443255016</v>
+        <v>-2.305635798084103</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>-0.1995621556413463</v>
       </c>
       <c r="E22" t="n">
-        <v>-20.65929001360326</v>
+        <v>-23.06460789168517</v>
       </c>
       <c r="F22" t="n">
-        <v>-1.313291611892634</v>
+        <v>0.5620760317618915</v>
       </c>
       <c r="G22" t="n">
-        <v>-1.958126803756168</v>
+        <v>-2.231651194725509</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>-0.1275557295782357</v>
       </c>
       <c r="E23" t="n">
-        <v>-20.8797251165494</v>
+        <v>-23.40020289042714</v>
       </c>
       <c r="F23" t="n">
-        <v>-1.173557463662892</v>
+        <v>0.7358239827744382</v>
       </c>
       <c r="G23" t="n">
-        <v>-1.753428648825781</v>
+        <v>-1.997364435372821</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>-0.01365066085394606</v>
       </c>
       <c r="E24" t="n">
-        <v>-21.33565147070967</v>
+        <v>-23.92930212516981</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.96085991169621</v>
+        <v>0.9339236170725953</v>
       </c>
       <c r="G24" t="n">
-        <v>-1.936642334792896</v>
+        <v>-2.076507406051055</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>0.1200666964089338</v>
       </c>
       <c r="E25" t="n">
-        <v>-21.49131895149779</v>
+        <v>-24.10627078268142</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7471542524107153</v>
+        <v>1.150090629292334</v>
       </c>
       <c r="G25" t="n">
-        <v>-2.059395766236919</v>
+        <v>-2.248972311385113</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>0.2512613849094862</v>
       </c>
       <c r="E26" t="n">
-        <v>-21.65477635247674</v>
+        <v>-24.24082037898584</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7155625256536303</v>
+        <v>1.230097691958122</v>
       </c>
       <c r="G26" t="n">
-        <v>-2.287110189563061</v>
+        <v>-2.360728208442086</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>0.3610108312138586</v>
       </c>
       <c r="E27" t="n">
-        <v>-21.71414994586397</v>
+        <v>-24.25414834327872</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.6426514911280579</v>
+        <v>1.244302840541395</v>
       </c>
       <c r="G27" t="n">
-        <v>-2.523439348159058</v>
+        <v>-2.461984078619996</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>0.4364774647932717</v>
       </c>
       <c r="E28" t="n">
-        <v>-21.65662236717743</v>
+        <v>-24.2133527276239</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.5426917589314794</v>
+        <v>1.277936966541789</v>
       </c>
       <c r="G28" t="n">
-        <v>-2.58299623378607</v>
+        <v>-2.528466792450281</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>0.4705309261978494</v>
       </c>
       <c r="E29" t="n">
-        <v>-21.66180691910275</v>
+        <v>-24.27321073621627</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.426327371274218</v>
+        <v>1.407210364800993</v>
       </c>
       <c r="G29" t="n">
-        <v>-2.86258236097113</v>
+        <v>-2.673320031091138</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.4615121510535588</v>
       </c>
       <c r="E30" t="n">
-        <v>-21.65803633588433</v>
+        <v>-24.13825527852376</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.4917888854828484</v>
+        <v>1.366624225991642</v>
       </c>
       <c r="G30" t="n">
-        <v>-3.05729108883328</v>
+        <v>-2.918015171202998</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.4123150236704281</v>
       </c>
       <c r="E31" t="n">
-        <v>-21.46436189994668</v>
+        <v>-23.78592831675007</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.5749904700420175</v>
+        <v>1.179037710875391</v>
       </c>
       <c r="G31" t="n">
-        <v>-3.114452083040256</v>
+        <v>-2.948336944584436</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.3306587589560864</v>
       </c>
       <c r="E32" t="n">
-        <v>-21.34679302042798</v>
+        <v>-23.61842539419303</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.5971426464502181</v>
+        <v>1.257656989439956</v>
       </c>
       <c r="G32" t="n">
-        <v>-3.48523919182078</v>
+        <v>-3.338867246050283</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.2282109417021464</v>
       </c>
       <c r="E33" t="n">
-        <v>-21.22394794286406</v>
+        <v>-23.38718914140246</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.6816403689907181</v>
+        <v>1.142274524495824</v>
       </c>
       <c r="G33" t="n">
-        <v>-3.441118131244163</v>
+        <v>-3.397507670478374</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.1176637540479634</v>
       </c>
       <c r="E34" t="n">
-        <v>-20.79546305546005</v>
+        <v>-22.88528261966205</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.8045901849773676</v>
+        <v>0.9950253944349309</v>
       </c>
       <c r="G34" t="n">
-        <v>-3.433825718561322</v>
+        <v>-3.474712980336032</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.01087571710775557</v>
       </c>
       <c r="E35" t="n">
-        <v>-20.47677021968676</v>
+        <v>-22.47231211112549</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.8625629019605306</v>
+        <v>0.9734492793517663</v>
       </c>
       <c r="G35" t="n">
-        <v>-3.384493921453698</v>
+        <v>-3.471034043237507</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>-0.08360516684811818</v>
       </c>
       <c r="E36" t="n">
-        <v>-20.22444226701817</v>
+        <v>-22.06457852372561</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.9980289594638703</v>
+        <v>0.8553043385080302</v>
       </c>
       <c r="G36" t="n">
-        <v>-3.363428406181361</v>
+        <v>-3.551329136565813</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>-0.1609170584854056</v>
       </c>
       <c r="E37" t="n">
-        <v>-19.84048430157887</v>
+        <v>-21.54840139188772</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.9973219751104171</v>
+        <v>0.8215392894792187</v>
       </c>
       <c r="G37" t="n">
-        <v>-3.15824583604583</v>
+        <v>-3.490358282231895</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>-0.2203004424801568</v>
       </c>
       <c r="E38" t="n">
-        <v>-19.51228645394248</v>
+        <v>-21.05331595992785</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.086375819039838</v>
+        <v>0.8376166373688583</v>
       </c>
       <c r="G38" t="n">
-        <v>-2.893021965078143</v>
+        <v>-3.326612850590427</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>-0.2658245264948487</v>
       </c>
       <c r="E39" t="n">
-        <v>-19.28936381345641</v>
+        <v>-20.65782367568499</v>
       </c>
       <c r="F39" t="n">
-        <v>-1.055530353544731</v>
+        <v>0.777221844359976</v>
       </c>
       <c r="G39" t="n">
-        <v>-2.620767527484449</v>
+        <v>-3.266898857329315</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>-0.3027718136323326</v>
       </c>
       <c r="E40" t="n">
-        <v>-18.93409108354333</v>
+        <v>-20.21123213345087</v>
       </c>
       <c r="F40" t="n">
-        <v>-1.229487781402745</v>
+        <v>0.7295396774104096</v>
       </c>
       <c r="G40" t="n">
-        <v>-2.77854286903009</v>
+        <v>-3.385790059435029</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>-0.3418834362513003</v>
       </c>
       <c r="E41" t="n">
-        <v>-18.53430452396838</v>
+        <v>-19.61847812229172</v>
       </c>
       <c r="F41" t="n">
-        <v>-1.149258149588648</v>
+        <v>0.7718540001948683</v>
       </c>
       <c r="G41" t="n">
-        <v>-2.374252557277589</v>
+        <v>-3.190112501162591</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>-0.3922087752237369</v>
       </c>
       <c r="E42" t="n">
-        <v>-18.00006001420891</v>
+        <v>-18.99595221447049</v>
       </c>
       <c r="F42" t="n">
-        <v>-1.20775455868548</v>
+        <v>0.7719063694062351</v>
       </c>
       <c r="G42" t="n">
-        <v>-2.288995481172269</v>
+        <v>-3.277267961179962</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>-0.4658064028405609</v>
       </c>
       <c r="E43" t="n">
-        <v>-17.60819429785321</v>
+        <v>-18.49769844522292</v>
       </c>
       <c r="F43" t="n">
-        <v>-1.458262681259067</v>
+        <v>0.5837045160564229</v>
       </c>
       <c r="G43" t="n">
-        <v>-2.176859907332886</v>
+        <v>-3.199408036180217</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>-0.5728368813089637</v>
       </c>
       <c r="E44" t="n">
-        <v>-17.35802657515351</v>
+        <v>-18.12698989025944</v>
       </c>
       <c r="F44" t="n">
-        <v>-1.573108361786688</v>
+        <v>0.562717554601136</v>
       </c>
       <c r="G44" t="n">
-        <v>-2.017893166228648</v>
+        <v>-3.089157753950041</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>-0.7223199091122089</v>
       </c>
       <c r="E45" t="n">
-        <v>-17.21665588906855</v>
+        <v>-17.84300474931957</v>
       </c>
       <c r="F45" t="n">
-        <v>-1.469862461576836</v>
+        <v>0.6323816980219604</v>
       </c>
       <c r="G45" t="n">
-        <v>-1.975356274295879</v>
+        <v>-3.233696777322697</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>-0.922922789168007</v>
       </c>
       <c r="E46" t="n">
-        <v>-16.79444221472572</v>
+        <v>-17.30777831684696</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.605276149868809</v>
+        <v>0.6695245611839373</v>
       </c>
       <c r="G46" t="n">
-        <v>-1.866402130047035</v>
+        <v>-3.187507132897088</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>-1.174582589012237</v>
       </c>
       <c r="E47" t="n">
-        <v>-16.77983120475436</v>
+        <v>-16.9957494632201</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.569010470997227</v>
+        <v>0.6437850937971039</v>
       </c>
       <c r="G47" t="n">
-        <v>-1.758717939173838</v>
+        <v>-3.093137814013926</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-1.481161657352413</v>
       </c>
       <c r="E48" t="n">
-        <v>-16.58810752194012</v>
+        <v>-16.65521866630681</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.666757604013554</v>
+        <v>0.6141572124662777</v>
       </c>
       <c r="G48" t="n">
-        <v>-1.583765496299853</v>
+        <v>-3.06161154877105</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-1.836648657447871</v>
       </c>
       <c r="E49" t="n">
-        <v>-16.15037946872985</v>
+        <v>-16.14080899535255</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.72118230692661</v>
+        <v>0.5313745815980438</v>
       </c>
       <c r="G49" t="n">
-        <v>-1.503221649217554</v>
+        <v>-2.986723576516376</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-2.238789740862456</v>
       </c>
       <c r="E50" t="n">
-        <v>-15.90048668438983</v>
+        <v>-15.80362982796674</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.8899551828593</v>
+        <v>0.3683754112185543</v>
       </c>
       <c r="G50" t="n">
-        <v>-1.358486241302272</v>
+        <v>-2.965278384461629</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-2.681762855025112</v>
       </c>
       <c r="E51" t="n">
-        <v>-15.39243987261665</v>
+        <v>-15.23414083895734</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.98021351865016</v>
+        <v>0.315482507737981</v>
       </c>
       <c r="G51" t="n">
-        <v>-1.322142008613641</v>
+        <v>-3.029195006934936</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-3.159894444608943</v>
       </c>
       <c r="E52" t="n">
-        <v>-15.20131843573313</v>
+        <v>-14.89867676324379</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.883788708220847</v>
+        <v>0.4058193973458908</v>
       </c>
       <c r="G52" t="n">
-        <v>-1.332393281738712</v>
+        <v>-3.162828142040434</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-3.673602196845148</v>
       </c>
       <c r="E53" t="n">
-        <v>-14.75226554056477</v>
+        <v>-14.36769223689191</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.753297725797364</v>
+        <v>0.5409057780668204</v>
       </c>
       <c r="G53" t="n">
-        <v>-1.407150330964968</v>
+        <v>-3.293921370394637</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-4.215007569219061</v>
       </c>
       <c r="E54" t="n">
-        <v>-14.44608894630816</v>
+        <v>-14.01409532174257</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.922424093906781</v>
+        <v>0.4004908300893084</v>
       </c>
       <c r="G54" t="n">
-        <v>-1.567714333015897</v>
+        <v>-3.438879347458228</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-4.789368255921028</v>
       </c>
       <c r="E55" t="n">
-        <v>-14.00781101637854</v>
+        <v>-13.50797307848712</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.977189196693721</v>
+        <v>0.2485808402167608</v>
       </c>
       <c r="G55" t="n">
-        <v>-1.628410248990139</v>
+        <v>-3.566201992594014</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-5.389936468969118</v>
       </c>
       <c r="E56" t="n">
-        <v>-14.04452183354674</v>
+        <v>-13.36377445498835</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.829887697421461</v>
+        <v>0.3484489262934472</v>
       </c>
       <c r="G56" t="n">
-        <v>-1.568473686580717</v>
+        <v>-3.640317518981025</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-6.01790595715809</v>
       </c>
       <c r="E57" t="n">
-        <v>-13.79993143185761</v>
+        <v>-13.01639638368883</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.972724721424693</v>
+        <v>0.2552579146660411</v>
       </c>
       <c r="G57" t="n">
-        <v>-1.796436863660851</v>
+        <v>-3.825233204317565</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-6.669160106822127</v>
       </c>
       <c r="E58" t="n">
-        <v>-13.73681343985765</v>
+        <v>-12.82768393052819</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.857656471748762</v>
+        <v>0.29909094458014</v>
       </c>
       <c r="G58" t="n">
-        <v>-2.172199047521231</v>
+        <v>-4.212163122501937</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-7.337305067767343</v>
       </c>
       <c r="E59" t="n">
-        <v>-13.44244610276428</v>
+        <v>-12.46675532578749</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.861400870361496</v>
+        <v>0.2474156252638472</v>
       </c>
       <c r="G59" t="n">
-        <v>-2.369814266614244</v>
+        <v>-4.411349417935957</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-8.022120845760346</v>
       </c>
       <c r="E60" t="n">
-        <v>-13.09713661531376</v>
+        <v>-12.00248917471704</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.907302484124587</v>
+        <v>0.1413941568515495</v>
       </c>
       <c r="G60" t="n">
-        <v>-2.567337839587366</v>
+        <v>-4.536891509885268</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-8.710223363259047</v>
       </c>
       <c r="E61" t="n">
-        <v>-13.05114335543077</v>
+        <v>-11.93985559792222</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.815001749090419</v>
+        <v>0.1696211617783109</v>
       </c>
       <c r="G61" t="n">
-        <v>-2.716079492172215</v>
+        <v>-4.727738008409109</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-9.401190227333133</v>
       </c>
       <c r="E62" t="n">
-        <v>-12.83196511355744</v>
+        <v>-11.61244328845634</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.826706267830922</v>
+        <v>0.1039894476327381</v>
       </c>
       <c r="G62" t="n">
-        <v>-2.942157377643141</v>
+        <v>-5.012547964428018</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-10.07887154086561</v>
       </c>
       <c r="E63" t="n">
-        <v>-12.62755498928957</v>
+        <v>-11.37848383667469</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.890806182544013</v>
+        <v>0.03981097910259689</v>
       </c>
       <c r="G63" t="n">
-        <v>-2.931958473729436</v>
+        <v>-5.00998187307104</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-10.73552909951113</v>
       </c>
       <c r="E64" t="n">
-        <v>-12.44678956395386</v>
+        <v>-11.18554256969618</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.786971128706283</v>
+        <v>0.03611894970123014</v>
       </c>
       <c r="G64" t="n">
-        <v>-3.020894486933281</v>
+        <v>-5.010479380579025</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-11.35732547112296</v>
       </c>
       <c r="E65" t="n">
-        <v>-12.30587710846836</v>
+        <v>-11.10083537031021</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.786787836466499</v>
+        <v>0.02623426105572696</v>
       </c>
       <c r="G65" t="n">
-        <v>-3.222254104639029</v>
+        <v>-5.02371569875201</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-11.93047630525</v>
       </c>
       <c r="E66" t="n">
-        <v>-12.22386692346779</v>
+        <v>-10.95883625368885</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.844171399821784</v>
+        <v>0.003178715751447355</v>
       </c>
       <c r="G66" t="n">
-        <v>-3.234272838647733</v>
+        <v>-5.104455930376935</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-12.44707908362373</v>
       </c>
       <c r="E67" t="n">
-        <v>-12.27365695117487</v>
+        <v>-10.89834981456007</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.995243482312461</v>
+        <v>-0.2098985129976444</v>
       </c>
       <c r="G67" t="n">
-        <v>-3.182806996176908</v>
+        <v>-5.133782688742402</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-12.89252694612954</v>
       </c>
       <c r="E68" t="n">
-        <v>-12.2588233720552</v>
+        <v>-10.88504803487288</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.051291630777891</v>
+        <v>-0.2219565239148741</v>
       </c>
       <c r="G68" t="n">
-        <v>-3.20209195826277</v>
+        <v>-4.993760509850141</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-13.26629494317771</v>
       </c>
       <c r="E69" t="n">
-        <v>-12.12084359240624</v>
+        <v>-10.83641012981587</v>
       </c>
       <c r="F69" t="n">
-        <v>-1.892612920336171</v>
+        <v>-0.184970768386998</v>
       </c>
       <c r="G69" t="n">
-        <v>-2.985754746106089</v>
+        <v>-4.749719984880367</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-13.55936566682817</v>
       </c>
       <c r="E70" t="n">
-        <v>-12.21323597356031</v>
+        <v>-10.86966457903385</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.169541310044361</v>
+        <v>-0.490898608889611</v>
       </c>
       <c r="G70" t="n">
-        <v>-2.936776441175192</v>
+        <v>-4.630056336906991</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-13.77613230540893</v>
       </c>
       <c r="E71" t="n">
-        <v>-12.15196399626103</v>
+        <v>-10.75508074456306</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.164618604175871</v>
+        <v>-0.4575263289460513</v>
       </c>
       <c r="G71" t="n">
-        <v>-2.805591566701096</v>
+        <v>-4.576129141501921</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-13.91688171864297</v>
       </c>
       <c r="E72" t="n">
-        <v>-12.27641942707448</v>
+        <v>-10.9261578657959</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.231494087091408</v>
+        <v>-0.4512420235820228</v>
       </c>
       <c r="G72" t="n">
-        <v>-2.770517287388112</v>
+        <v>-4.463234214097717</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-13.98786699456126</v>
       </c>
       <c r="E73" t="n">
-        <v>-12.36919148501095</v>
+        <v>-11.09058409718514</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.255308985960508</v>
+        <v>-0.5338282699076308</v>
       </c>
       <c r="G73" t="n">
-        <v>-2.648208994240707</v>
+        <v>-4.369781356413477</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-13.99607802458508</v>
       </c>
       <c r="E74" t="n">
-        <v>-12.65887177768698</v>
+        <v>-11.44195532085138</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.300647630701405</v>
+        <v>-0.5662317194409028</v>
       </c>
       <c r="G74" t="n">
-        <v>-2.685443503522576</v>
+        <v>-4.362672235970419</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-13.94609739644931</v>
       </c>
       <c r="E75" t="n">
-        <v>-12.96189312695873</v>
+        <v>-11.7966127125309</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.389845489962085</v>
+        <v>-0.6424551065854319</v>
       </c>
       <c r="G75" t="n">
-        <v>-2.51427473616985</v>
+        <v>-4.181946087543233</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-13.84756129722106</v>
       </c>
       <c r="E76" t="n">
-        <v>-13.10528002768131</v>
+        <v>-11.90698082548665</v>
       </c>
       <c r="F76" t="n">
-        <v>-2.574682621481574</v>
+        <v>-0.7485289442090965</v>
       </c>
       <c r="G76" t="n">
-        <v>-2.145425288209901</v>
+        <v>-3.894098717265043</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-13.70006787669856</v>
       </c>
       <c r="E77" t="n">
-        <v>-13.59504998468744</v>
+        <v>-12.34092520317566</v>
       </c>
       <c r="F77" t="n">
-        <v>-2.652136685093225</v>
+        <v>-0.7830140698942031</v>
       </c>
       <c r="G77" t="n">
-        <v>-1.913220205009048</v>
+        <v>-3.734372622595985</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-13.51092997379247</v>
       </c>
       <c r="E78" t="n">
-        <v>-14.34620776792863</v>
+        <v>-13.13625641620484</v>
       </c>
       <c r="F78" t="n">
-        <v>-2.859518762106166</v>
+        <v>-0.9674322477227565</v>
       </c>
       <c r="G78" t="n">
-        <v>-1.794106433755024</v>
+        <v>-3.616816835380127</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-13.27457034514628</v>
       </c>
       <c r="E79" t="n">
-        <v>-14.81627380915797</v>
+        <v>-13.6942503633192</v>
       </c>
       <c r="F79" t="n">
-        <v>-2.803627721274838</v>
+        <v>-0.9886810552348778</v>
       </c>
       <c r="G79" t="n">
-        <v>-1.660434021741001</v>
+        <v>-3.483563377057039</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-12.99217079980363</v>
       </c>
       <c r="E80" t="n">
-        <v>-15.37040552693402</v>
+        <v>-14.28733168204939</v>
       </c>
       <c r="F80" t="n">
-        <v>-2.941555131712422</v>
+        <v>-1.032317700606351</v>
       </c>
       <c r="G80" t="n">
-        <v>-1.529641916352157</v>
+        <v>-3.27323553190471</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-12.65593429007181</v>
       </c>
       <c r="E81" t="n">
-        <v>-16.00354929235989</v>
+        <v>-14.93559705725746</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.075581035903171</v>
+        <v>-1.078180037460917</v>
       </c>
       <c r="G81" t="n">
-        <v>-1.242972853329723</v>
+        <v>-2.87327877239282</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-12.26273286792959</v>
       </c>
       <c r="E82" t="n">
-        <v>-16.79237363087673</v>
+        <v>-15.85588120860807</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.299472506799529</v>
+        <v>-1.276908102295477</v>
       </c>
       <c r="G82" t="n">
-        <v>-1.179723938301345</v>
+        <v>-2.734133777790956</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-11.81109022897737</v>
       </c>
       <c r="E83" t="n">
-        <v>-17.65854729458249</v>
+        <v>-16.60905520648688</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.495241711191859</v>
+        <v>-1.372128420863351</v>
       </c>
       <c r="G83" t="n">
-        <v>-1.183795644485121</v>
+        <v>-2.611890946157759</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-11.29702539534069</v>
       </c>
       <c r="E84" t="n">
-        <v>-18.5122832705886</v>
+        <v>-17.5388181850949</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.696143098298145</v>
+        <v>-1.520123812186222</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.9829597188930436</v>
+        <v>-2.348866582067482</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-10.7286931039787</v>
       </c>
       <c r="E85" t="n">
-        <v>-19.4491946465482</v>
+        <v>-18.56064623728594</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.844583627917635</v>
+        <v>-1.609282394538377</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.990919839020813</v>
+        <v>-2.32124182307144</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-10.10500453470689</v>
       </c>
       <c r="E86" t="n">
-        <v>-20.69504509266401</v>
+        <v>-19.80788446750297</v>
       </c>
       <c r="F86" t="n">
-        <v>-4.041858447136764</v>
+        <v>-1.77754467066024</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.9275400009640171</v>
+        <v>-2.099955720440586</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-9.44023286272216</v>
       </c>
       <c r="E87" t="n">
-        <v>-21.81422750878613</v>
+        <v>-20.95890736413616</v>
       </c>
       <c r="F87" t="n">
-        <v>-4.050224428652627</v>
+        <v>-1.733502163900674</v>
       </c>
       <c r="G87" t="n">
-        <v>-1.135092277913901</v>
+        <v>-2.275170009371406</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-8.74099199829392</v>
       </c>
       <c r="E88" t="n">
-        <v>-23.26728983197793</v>
+        <v>-22.46123602292138</v>
       </c>
       <c r="F88" t="n">
-        <v>-4.113800651252048</v>
+        <v>-1.748244096900457</v>
       </c>
       <c r="G88" t="n">
-        <v>-1.027696117703222</v>
+        <v>-2.104223811166989</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>-8.024030274835351</v>
       </c>
       <c r="E89" t="n">
-        <v>-24.65130334998248</v>
+        <v>-23.77036156867126</v>
       </c>
       <c r="F89" t="n">
-        <v>-4.314767499872544</v>
+        <v>-1.930776983119802</v>
       </c>
       <c r="G89" t="n">
-        <v>-1.214798217614329</v>
+        <v>-2.211567602166301</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>-7.307456025657488</v>
       </c>
       <c r="E90" t="n">
-        <v>-26.18703047331695</v>
+        <v>-25.33453826608079</v>
       </c>
       <c r="F90" t="n">
-        <v>-4.358639806695168</v>
+        <v>-1.910483913715127</v>
       </c>
       <c r="G90" t="n">
-        <v>-1.344647677198568</v>
+        <v>-2.215626216047236</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>-6.608270128450687</v>
       </c>
       <c r="E91" t="n">
-        <v>-27.75475518479659</v>
+        <v>-26.98573950047929</v>
       </c>
       <c r="F91" t="n">
-        <v>-4.579362940303827</v>
+        <v>-2.017827704714439</v>
       </c>
       <c r="G91" t="n">
-        <v>-1.629117233343592</v>
+        <v>-2.381819908320107</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>-5.954155649669587</v>
       </c>
       <c r="E92" t="n">
-        <v>-29.41809298392937</v>
+        <v>-28.64101244106156</v>
       </c>
       <c r="F92" t="n">
-        <v>-4.678903718809471</v>
+        <v>-2.105611595268212</v>
       </c>
       <c r="G92" t="n">
-        <v>-1.800587123661678</v>
+        <v>-2.539490511443014</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>-5.361398564241279</v>
       </c>
       <c r="E93" t="n">
-        <v>-31.16071776907163</v>
+        <v>-30.45585436867878</v>
       </c>
       <c r="F93" t="n">
-        <v>-4.808530609245401</v>
+        <v>-2.223481597752272</v>
       </c>
       <c r="G93" t="n">
-        <v>-2.160769467140404</v>
+        <v>-2.638730166983298</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>-4.854728997230129</v>
       </c>
       <c r="E94" t="n">
-        <v>-32.85931313975717</v>
+        <v>-32.18623785066404</v>
       </c>
       <c r="F94" t="n">
-        <v>-4.755022367531266</v>
+        <v>-2.128614771361125</v>
       </c>
       <c r="G94" t="n">
-        <v>-2.589175800727364</v>
+        <v>-3.011572767309973</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>-4.445842929804549</v>
       </c>
       <c r="E95" t="n">
-        <v>-34.78918404014181</v>
+        <v>-34.04893214516777</v>
       </c>
       <c r="F95" t="n">
-        <v>-4.969461195775898</v>
+        <v>-2.427983368140033</v>
       </c>
       <c r="G95" t="n">
-        <v>-2.753903155081962</v>
+        <v>-3.082807987071804</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>-4.142933802405604</v>
       </c>
       <c r="E96" t="n">
-        <v>-36.65003231994486</v>
+        <v>-35.99713226953082</v>
       </c>
       <c r="F96" t="n">
-        <v>-5.290104784672611</v>
+        <v>-2.703484696838475</v>
       </c>
       <c r="G96" t="n">
-        <v>-3.299930737398989</v>
+        <v>-3.567223192215669</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-3.945818740254754</v>
       </c>
       <c r="E97" t="n">
-        <v>-38.7323369023157</v>
+        <v>-38.10285898168551</v>
       </c>
       <c r="F97" t="n">
-        <v>-5.344477118374299</v>
+        <v>-2.788087157801709</v>
       </c>
       <c r="G97" t="n">
-        <v>-3.553764304894374</v>
+        <v>-3.705085141139044</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-3.841895288980212</v>
       </c>
       <c r="E98" t="n">
-        <v>-40.97765374736888</v>
+        <v>-40.36820705008653</v>
       </c>
       <c r="F98" t="n">
-        <v>-5.510683902950012</v>
+        <v>-2.934825688051774</v>
       </c>
       <c r="G98" t="n">
-        <v>-4.027744944673383</v>
+        <v>-4.109689668159747</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-3.815816518546072</v>
       </c>
       <c r="E99" t="n">
-        <v>-42.91980522781905</v>
+        <v>-42.42524348797285</v>
       </c>
       <c r="F99" t="n">
-        <v>-5.616967217419144</v>
+        <v>-3.150141700586802</v>
       </c>
       <c r="G99" t="n">
-        <v>-4.298454490531753</v>
+        <v>-4.329011925364342</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-3.840978318235715</v>
       </c>
       <c r="E100" t="n">
-        <v>-44.96456108563983</v>
+        <v>-44.56048025073279</v>
       </c>
       <c r="F100" t="n">
-        <v>-5.730503667662592</v>
+        <v>-3.262748597328487</v>
       </c>
       <c r="G100" t="n">
-        <v>-4.353219593318693</v>
+        <v>-4.358181576095707</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-3.889796146234842</v>
       </c>
       <c r="E101" t="n">
-        <v>-47.13281663616661</v>
+        <v>-46.67796385083936</v>
       </c>
       <c r="F101" t="n">
-        <v>-5.844681640745285</v>
+        <v>-3.388434704609057</v>
       </c>
       <c r="G101" t="n">
-        <v>-4.858084975501334</v>
+        <v>-4.842177827548637</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-3.936690878062719</v>
       </c>
       <c r="E102" t="n">
-        <v>-49.29969749489501</v>
+        <v>-48.93188233885955</v>
       </c>
       <c r="F102" t="n">
-        <v>-6.264224485308397</v>
+        <v>-3.679424227569261</v>
       </c>
       <c r="G102" t="n">
-        <v>-5.270191392050346</v>
+        <v>-5.180430563767471</v>
       </c>
     </row>
   </sheetData>
